--- a/Esercitazioni_AC/2024_01_08/Foglio_Soluzione_Es2_CEM_20240108.xlsx
+++ b/Esercitazioni_AC/2024_01_08/Foglio_Soluzione_Es2_CEM_20240108.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cache" sheetId="1" state="hidden" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="175">
   <si>
     <t xml:space="preserve">Testo:</t>
   </si>
@@ -530,6 +530,15 @@
     <t xml:space="preserve">MESI</t>
   </si>
   <si>
+    <t xml:space="preserve">1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Istruzione: fld f14,0(x15)</t>
   </si>
   <si>
@@ -537,13 +546,28 @@
 i = 0</t>
   </si>
   <si>
+    <t xml:space="preserve">A[0...3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
     <t xml:space="preserve">Istruzione: fld f15,0(x11)</t>
   </si>
   <si>
+    <t xml:space="preserve">1M+1WB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B[0..3]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Istruzione: fld f15,0(x12)</t>
   </si>
   <si>
     <t xml:space="preserve">Istruzione: fsd f15,0(x12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1H</t>
   </si>
   <si>
     <t xml:space="preserve">Task = T1
@@ -553,6 +577,9 @@
     <t xml:space="preserve">Istruzione: fsw fa5,-8(x11)</t>
   </si>
   <si>
+    <t xml:space="preserve">0x0 0001</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2.2.	Si mostri il contenuto della cache (per la prima e l’ultima linea di cache), lo stato MESI e il valore del bit LRU al termine del programma. (3 punti).</t>
   </si>
   <si>
@@ -566,6 +593,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">B[0...3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A[508...511]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B[508...511]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.3.	Calcolare il numero di accessi, HIT, MISS, HIT rate, MISS rate e cicli di WB per ciascun core al termine dell’esecuzione del programma (3 punti)</t>
   </si>
   <si>
@@ -584,9 +623,36 @@
     <t xml:space="preserve"># HIT</t>
   </si>
   <si>
+    <t xml:space="preserve">1x4+127X3X2+511+511=4+762+1022=1788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128X3+512+512=384+1024=1408</t>
+  </si>
+  <si>
     <t xml:space="preserve"># MISS</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">x4+127X2=12+254=266</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"># HIT rate [%]</t>
   </si>
   <si>
@@ -596,10 +662,17 @@
     <t xml:space="preserve"># WB</t>
   </si>
   <si>
+    <t xml:space="preserve">1x4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Motivare i valori ottenuti:</t>
   </si>
   <si>
     <t xml:space="preserve">2.4.	Si descriva in modo qualitativo come si modificherebbe l’analisi al punto 3 se la variabile D fosse stata allocata all’indirizzo 0x0000_3010?  (3 punti) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C e D avrebbero avuto anologo set_id e tag → problema: si sarebbero invalidati a vicenda ad ogni ciclo di lettura/scrittura,  
+Cosa che avrebbe fatto lievitare un sacco il numero di WB.</t>
   </si>
 </sst>
 </file>
@@ -609,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -670,6 +743,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -679,9 +760,8 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -716,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -945,13 +1025,6 @@
       <left style="medium"/>
       <right style="thin"/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1004,384 +1077,384 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1470,330 +1543,330 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">32-7-6</f>
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="I9" s="0" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="H10" s="23" t="s">
+      <c r="E10" s="23"/>
+      <c r="H10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="28" t="s">
+      <c r="E11" s="28"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24" t="s">
+      <c r="M11" s="25"/>
+      <c r="N11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="O13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="P14" s="24" t="s">
+      <c r="M14" s="25"/>
+      <c r="P14" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1821,411 +1894,411 @@
   </sheetPr>
   <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="Q9" s="0" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="Q9" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="43" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="41" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="53" t="n">
+      <c r="B22" s="46"/>
+      <c r="C22" s="54" t="n">
         <v>20</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53" t="n">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54" t="n">
         <v>20</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="54" t="n">
+      <c r="B23" s="34"/>
+      <c r="C23" s="55" t="n">
         <v>7</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54" t="n">
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55" t="n">
         <v>7</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="56" t="s">
         <v>107</v>
       </c>
@@ -2235,50 +2308,50 @@
       <c r="L24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="57" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="57"/>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="58" t="s">
         <v>112</v>
       </c>
@@ -2295,53 +2368,53 @@
       <c r="L27" s="58"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="41" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="56" t="s">
         <v>116</v>
       </c>
@@ -2351,38 +2424,38 @@
       <c r="L30" s="56"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="59" t="s">
@@ -2419,18 +2492,18 @@
         <v>99</v>
       </c>
       <c r="B35" s="60"/>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="60"/>
@@ -2451,15 +2524,15 @@
       <c r="L36" s="62"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="63"/>
@@ -2614,77 +2687,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B2:R69"/>
+  <dimension ref="A2:T69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="65" t="s">
@@ -2740,16 +2813,16 @@
       <c r="J9" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="67"/>
@@ -2762,7 +2835,7 @@
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="52" t="s">
         <v>126</v>
       </c>
       <c r="K10" s="69"/>
@@ -2778,11 +2851,11 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="67"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="61" t="s">
         <v>129</v>
       </c>
@@ -2791,7 +2864,7 @@
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="69"/>
       <c r="L11" s="69" t="s">
         <v>128</v>
@@ -2801,14 +2874,14 @@
       <c r="O11" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="P11" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="61" t="s">
@@ -2830,8 +2903,8 @@
       <c r="I12" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="41" t="s">
+      <c r="J12" s="52"/>
+      <c r="K12" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L12" s="61" t="s">
@@ -2850,47 +2923,68 @@
       <c r="Q12" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="76"/>
+      <c r="A13" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="75" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="70"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="36"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="67"/>
@@ -2903,7 +2997,7 @@
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
-      <c r="J15" s="51"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="69"/>
       <c r="L15" s="68" t="s">
         <v>125</v>
@@ -2917,11 +3011,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="67"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="61" t="s">
         <v>129</v>
       </c>
@@ -2930,7 +3024,7 @@
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
-      <c r="J16" s="51"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="69"/>
       <c r="L16" s="69" t="s">
         <v>128</v>
@@ -2940,14 +3034,14 @@
       <c r="O16" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="51" t="s">
+      <c r="P16" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="61" t="s">
@@ -2969,8 +3063,8 @@
       <c r="I17" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="41" t="s">
+      <c r="J17" s="52"/>
+      <c r="K17" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L17" s="61" t="s">
@@ -2989,52 +3083,79 @@
       <c r="Q17" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="76"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="70"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="36"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -3043,7 +3164,7 @@
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="83" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" s="69"/>
       <c r="L20" s="68" t="s">
@@ -3058,11 +3179,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="67"/>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="61" t="s">
         <v>129</v>
       </c>
@@ -3081,14 +3202,14 @@
       <c r="O21" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P21" s="51" t="s">
+      <c r="P21" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C22" s="61" t="s">
@@ -3111,7 +3232,7 @@
         <v>133</v>
       </c>
       <c r="J22" s="83"/>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L22" s="61" t="s">
@@ -3130,52 +3251,83 @@
       <c r="Q22" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="A23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="72" t="s">
+        <v>140</v>
+      </c>
       <c r="J23" s="83"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="76"/>
+      <c r="K23" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="75" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="70"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="83"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="36"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="67"/>
       <c r="C25" s="68" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -3197,11 +3349,11 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="67"/>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="61" t="s">
         <v>129</v>
       </c>
@@ -3220,14 +3372,14 @@
       <c r="O26" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="51" t="s">
+      <c r="P26" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="61" t="s">
@@ -3250,7 +3402,7 @@
         <v>133</v>
       </c>
       <c r="J27" s="83"/>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L27" s="61" t="s">
@@ -3269,52 +3421,83 @@
       <c r="Q27" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R27" s="40" t="s">
+      <c r="R27" s="41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>140</v>
+      </c>
       <c r="J28" s="83"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="76"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="M28" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="70"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="83"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="36"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="67"/>
       <c r="C30" s="68" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -3336,11 +3519,11 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="67"/>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -3359,14 +3542,14 @@
       <c r="O31" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P31" s="51" t="s">
+      <c r="P31" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C32" s="61" t="s">
@@ -3389,7 +3572,7 @@
         <v>133</v>
       </c>
       <c r="J32" s="83"/>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L32" s="61" t="s">
@@ -3408,52 +3591,83 @@
       <c r="Q32" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R32" s="40" t="s">
+      <c r="R32" s="41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="A33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>140</v>
+      </c>
       <c r="J33" s="83"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="76"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="L33" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="O33" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="70"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77"/>
       <c r="J34" s="83"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="36"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="67"/>
       <c r="C35" s="68" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -3475,11 +3689,11 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="67"/>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="61" t="s">
         <v>129</v>
       </c>
@@ -3498,14 +3712,14 @@
       <c r="O36" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P36" s="51" t="s">
+      <c r="P36" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C37" s="61" t="s">
@@ -3528,7 +3742,7 @@
         <v>133</v>
       </c>
       <c r="J37" s="83"/>
-      <c r="K37" s="41" t="s">
+      <c r="K37" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L37" s="61" t="s">
@@ -3547,47 +3761,78 @@
       <c r="Q37" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R37" s="40" t="s">
+      <c r="R37" s="41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="73"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="J38" s="83"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="76"/>
+      <c r="K38" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="L38" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N38" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="O38" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="75" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="70"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="80"/>
       <c r="J39" s="83"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="36"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="67"/>
@@ -3601,11 +3846,11 @@
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
       <c r="J40" s="83" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K40" s="69"/>
       <c r="L40" s="68" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M40" s="68"/>
       <c r="N40" s="68"/>
@@ -3616,11 +3861,11 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="67"/>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="61" t="s">
         <v>129</v>
       </c>
@@ -3639,14 +3884,14 @@
       <c r="O41" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P41" s="51" t="s">
+      <c r="P41" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C42" s="61" t="s">
@@ -3669,7 +3914,7 @@
         <v>133</v>
       </c>
       <c r="J42" s="83"/>
-      <c r="K42" s="41" t="s">
+      <c r="K42" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L42" s="61" t="s">
@@ -3688,47 +3933,76 @@
       <c r="Q42" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R42" s="40" t="s">
+      <c r="R42" s="41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="71"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="J43" s="83"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="76"/>
+      <c r="K43" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="L43" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N43" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="O43" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="75"/>
+      <c r="T43" s="0" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="70"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="78"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
       <c r="J44" s="83"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="36"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="67"/>
@@ -3744,7 +4018,7 @@
       <c r="J45" s="83"/>
       <c r="K45" s="69"/>
       <c r="L45" s="68" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M45" s="68"/>
       <c r="N45" s="68"/>
@@ -3755,11 +4029,11 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="67"/>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="61" t="s">
         <v>129</v>
       </c>
@@ -3778,14 +4052,14 @@
       <c r="O46" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P46" s="51" t="s">
+      <c r="P46" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C47" s="61" t="s">
@@ -3808,7 +4082,7 @@
         <v>133</v>
       </c>
       <c r="J47" s="83"/>
-      <c r="K47" s="41" t="s">
+      <c r="K47" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L47" s="61" t="s">
@@ -3827,47 +4101,82 @@
       <c r="Q47" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R47" s="40" t="s">
+      <c r="R47" s="41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="71"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="J48" s="83"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="76"/>
+      <c r="K48" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="L48" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="M48" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N48" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="O48" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q48" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="R48" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="T48" s="0" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="70"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="78"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="77"/>
       <c r="J49" s="83"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="36"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="37"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="67"/>
@@ -3883,7 +4192,7 @@
       <c r="J50" s="83"/>
       <c r="K50" s="69"/>
       <c r="L50" s="68" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M50" s="68"/>
       <c r="N50" s="68"/>
@@ -3894,11 +4203,11 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="67"/>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="61" t="s">
         <v>129</v>
       </c>
@@ -3917,14 +4226,14 @@
       <c r="O51" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="P51" s="51" t="s">
+      <c r="P51" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="61" t="s">
@@ -3947,7 +4256,7 @@
         <v>133</v>
       </c>
       <c r="J52" s="83"/>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="42" t="s">
         <v>131</v>
       </c>
       <c r="L52" s="61" t="s">
@@ -3966,47 +4275,82 @@
       <c r="Q52" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="R52" s="40" t="s">
+      <c r="R52" s="41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="71"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="73"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="J53" s="83"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="76"/>
+      <c r="K53" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="L53" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="M53" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N53" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="O53" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q53" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="R53" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="T53" s="0" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="70"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="81"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="80"/>
       <c r="J54" s="83"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="36"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="81"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="37"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4134,80 +4478,80 @@
   </sheetPr>
   <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="84" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
@@ -4260,7 +4604,7 @@
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="40" t="s">
         <v>123</v>
       </c>
       <c r="L9" s="85" t="s">
@@ -4273,14 +4617,14 @@
       <c r="Q9" s="85"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="67"/>
       <c r="C10" s="86" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="86"/>
@@ -4289,11 +4633,11 @@
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
       <c r="J10" s="83" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L10" s="67"/>
       <c r="M10" s="86" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="N10" s="86"/>
       <c r="O10" s="86"/>
@@ -4302,7 +4646,7 @@
       <c r="R10" s="86"/>
       <c r="S10" s="86"/>
       <c r="T10" s="83" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4386,343 +4730,401 @@
       <c r="T12" s="83"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="B13" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>140</v>
+      </c>
       <c r="J13" s="83"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="73"/>
+      <c r="L13" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="R13" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13" s="75" t="s">
+        <v>140</v>
+      </c>
       <c r="T13" s="83"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="60"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
+      <c r="B14" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>140</v>
+      </c>
       <c r="J14" s="83"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="78"/>
+      <c r="L14" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="77"/>
       <c r="T14" s="83"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="60"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="83"/>
       <c r="L15" s="60"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="78"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="77"/>
       <c r="T15" s="83"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="60"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="83"/>
       <c r="L16" s="60"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="78"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="77"/>
       <c r="T16" s="83"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="60"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="83"/>
       <c r="L17" s="60"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="78"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="77"/>
       <c r="T17" s="83"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="60"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="83"/>
       <c r="L18" s="60"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="78"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="77"/>
       <c r="T18" s="83"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="60"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="83"/>
       <c r="L19" s="60"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="78"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="77"/>
       <c r="T19" s="83"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="60"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="83"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="78"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="77"/>
       <c r="T20" s="83"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="60"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="83"/>
       <c r="L21" s="60"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="78"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="77"/>
       <c r="T21" s="83"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="60"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="83"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="78"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
       <c r="T22" s="83"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="60"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="83"/>
       <c r="L23" s="60"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="78"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
       <c r="T23" s="83"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="60"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="83"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="78"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="83"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="60"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="83"/>
       <c r="L25" s="60"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="78"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="77"/>
       <c r="T25" s="83"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="60"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="83"/>
       <c r="L26" s="60"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="78"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="77"/>
       <c r="T26" s="83"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="60"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="83"/>
       <c r="L27" s="60"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="78"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="77"/>
       <c r="T27" s="83"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="60"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="78"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="83"/>
       <c r="L28" s="60"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="78"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="77"/>
       <c r="T28" s="83"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="60"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="81"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
       <c r="J29" s="83"/>
       <c r="L29" s="60"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="81"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="80"/>
       <c r="T29" s="83"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4768,79 +5170,79 @@
   </sheetPr>
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="59" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -4869,310 +5271,322 @@
       <c r="M8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
+      <c r="B11" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
+      <c r="B12" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="45" t="n">
+        <v>128</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
+      <c r="B14" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
+      <c r="B15" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
+      <c r="B16" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
+      <c r="B17" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="59" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -5200,8 +5614,10 @@
       <c r="L30" s="59"/>
       <c r="M30" s="59"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="95"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="95" t="s">
+        <v>174</v>
+      </c>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
       <c r="E31" s="95"/>

--- a/Esercitazioni_AC/2024_01_08/Foglio_Soluzione_Es2_CEM_20240108.xlsx
+++ b/Esercitazioni_AC/2024_01_08/Foglio_Soluzione_Es2_CEM_20240108.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cache" sheetId="1" state="hidden" r:id="rId2"/>
-    <sheet name="a.i.ii.iii" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="b.i" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="2.1-2.2" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="b.ii.iii" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Cache" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="a.i.ii.iii" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="b.i" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="2.1-2.2" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="b.ii.iii" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'2.1-2.2'!$B$2:$T$29</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="139">
   <si>
     <t xml:space="preserve">Testo:</t>
   </si>
@@ -370,55 +370,19 @@
     <t xml:space="preserve">A[0]</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0000_1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0000_1007</t>
-  </si>
-  <si>
     <t xml:space="preserve">A[511]</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0000_1FF8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0000_1FFF</t>
-  </si>
-  <si>
     <t xml:space="preserve">B[0]</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0000_2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0000_2007</t>
-  </si>
-  <si>
     <t xml:space="preserve">B[511]</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0000_2FF8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0000_2FFF</t>
-  </si>
-  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0000_3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0000_3007</t>
-  </si>
-  <si>
     <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0000_4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0000_4007</t>
   </si>
   <si>
     <t xml:space="preserve">1.2) Specificare il numero e il valore dei bit di TAG e Set ID del primo ed ultimo elemento di ognuno dei vettori A e B e variabili C e D. 
@@ -446,39 +410,21 @@
     <t xml:space="preserve">TAG [0]</t>
   </si>
   <si>
-    <t xml:space="preserve">0X0 0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X0 0002</t>
-  </si>
-  <si>
     <t xml:space="preserve">SetID [0]</t>
   </si>
   <si>
-    <t xml:space="preserve">0X00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tag [511]</t>
   </si>
   <si>
     <t xml:space="preserve">SetID [511]</t>
   </si>
   <si>
-    <t xml:space="preserve">0X7F</t>
-  </si>
-  <si>
     <t xml:space="preserve">Variabile</t>
   </si>
   <si>
     <t xml:space="preserve">TAG </t>
   </si>
   <si>
-    <t xml:space="preserve">0X0 0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X0 0004</t>
-  </si>
-  <si>
     <t xml:space="preserve">SetID</t>
   </si>
   <si>
@@ -488,9 +434,6 @@
     <t xml:space="preserve"># Bytes</t>
   </si>
   <si>
-    <t xml:space="preserve">RISPOSTA: NO, la cache ha una capacità di solo 8 KB.</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1.	Si mostri la dinamica del contenuto della cache, dello stato MESI e del valore del bit LRU durante l’esecuzione del primo loop della cache. </t>
   </si>
   <si>
@@ -528,15 +471,6 @@
   </si>
   <si>
     <t xml:space="preserve">MESI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
   </si>
   <si>
     <t xml:space="preserve">Istruzione: fld f14,0(x15)</t>
@@ -546,28 +480,13 @@
 i = 0</t>
   </si>
   <si>
-    <t xml:space="preserve">A[0...3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">Istruzione: fld f15,0(x11)</t>
   </si>
   <si>
-    <t xml:space="preserve">1M+1WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B[0..3]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Istruzione: fld f15,0(x12)</t>
   </si>
   <si>
     <t xml:space="preserve">Istruzione: fsd f15,0(x12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1H</t>
   </si>
   <si>
     <t xml:space="preserve">Task = T1
@@ -577,9 +496,6 @@
     <t xml:space="preserve">Istruzione: fsw fa5,-8(x11)</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0 0001</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2.2.	Si mostri il contenuto della cache (per la prima e l’ultima linea di cache), lo stato MESI e il valore del bit LRU al termine del programma. (3 punti).</t>
   </si>
   <si>
@@ -593,18 +509,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">B[0...3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A[508...511]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B[508...511]</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.3.	Calcolare il numero di accessi, HIT, MISS, HIT rate, MISS rate e cicli di WB per ciascun core al termine dell’esecuzione del programma (3 punti)</t>
   </si>
   <si>
@@ -623,36 +527,9 @@
     <t xml:space="preserve"># HIT</t>
   </si>
   <si>
-    <t xml:space="preserve">1x4+127X3X2+511+511=4+762+1022=1788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128X3+512+512=384+1024=1408</t>
-  </si>
-  <si>
     <t xml:space="preserve"># MISS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">x4+127X2=12+254=266</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"># HIT rate [%]</t>
   </si>
   <si>
@@ -660,9 +537,6 @@
   </si>
   <si>
     <t xml:space="preserve"># WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x4</t>
   </si>
   <si>
     <t xml:space="preserve">Motivare i valori ottenuti:</t>
@@ -682,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -749,19 +623,6 @@
       <name val="Courier New"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1072,7 +933,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1421,19 +1282,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1530,6 +1383,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1541,7 +1500,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
@@ -1566,7 +1525,6 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1585,7 +1543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1603,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
@@ -1643,7 +1601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
@@ -1711,7 +1669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="26" t="s">
         <v>46</v>
       </c>
@@ -1783,7 +1741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H12" s="24" t="s">
         <v>55</v>
       </c>
@@ -1809,7 +1767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="24" t="s">
         <v>59</v>
       </c>
@@ -1835,7 +1793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="24" t="s">
         <v>59</v>
       </c>
@@ -1856,7 +1814,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="24" t="s">
         <v>67</v>
       </c>
@@ -1894,11 +1852,11 @@
   </sheetPr>
   <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
@@ -2029,7 +1987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="41" t="s">
@@ -2047,121 +2005,97 @@
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="43" t="s">
-        <v>81</v>
-      </c>
+      <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="44" t="s">
-        <v>82</v>
-      </c>
+      <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="45" t="s">
-        <v>84</v>
-      </c>
+      <c r="C12" s="45"/>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
-      <c r="H12" s="45" t="s">
-        <v>85</v>
-      </c>
+      <c r="H12" s="45"/>
       <c r="I12" s="45"/>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="43" t="s">
-        <v>87</v>
-      </c>
+      <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="44" t="s">
-        <v>88</v>
-      </c>
+      <c r="H13" s="44"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B14" s="47"/>
-      <c r="C14" s="45" t="s">
-        <v>90</v>
-      </c>
+      <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="45" t="s">
-        <v>91</v>
-      </c>
+      <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
       <c r="L14" s="45"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="48" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="48"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="44" t="s">
-        <v>94</v>
-      </c>
+      <c r="H15" s="44"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="47" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B16" s="47"/>
-      <c r="C16" s="49" t="s">
-        <v>96</v>
-      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
-      <c r="H16" s="50" t="s">
-        <v>97</v>
-      </c>
+      <c r="H16" s="50"/>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
@@ -2183,7 +2117,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="51" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2213,11 +2147,11 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="52" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="53" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -2233,14 +2167,14 @@
       <c r="A21" s="52"/>
       <c r="B21" s="52"/>
       <c r="C21" s="53" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="42" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
@@ -2249,19 +2183,15 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="46" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="54" t="n">
-        <v>20</v>
-      </c>
+      <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
-      <c r="H22" s="54" t="n">
-        <v>20</v>
-      </c>
+      <c r="H22" s="54"/>
       <c r="I22" s="54"/>
       <c r="J22" s="54"/>
       <c r="K22" s="54"/>
@@ -2269,39 +2199,31 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B23" s="34"/>
-      <c r="C23" s="55" t="n">
-        <v>7</v>
-      </c>
+      <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
-      <c r="H23" s="55" t="n">
-        <v>7</v>
-      </c>
+      <c r="H23" s="55"/>
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="46" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="56" t="s">
-        <v>106</v>
-      </c>
+      <c r="C24" s="56"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
-      <c r="H24" s="56" t="s">
-        <v>107</v>
-      </c>
+      <c r="H24" s="56"/>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
@@ -2309,19 +2231,15 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B25" s="34"/>
-      <c r="C25" s="55" t="s">
-        <v>109</v>
-      </c>
+      <c r="C25" s="55"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
-      <c r="H25" s="55" t="s">
-        <v>109</v>
-      </c>
+      <c r="H25" s="55"/>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
       <c r="K25" s="55"/>
@@ -2329,51 +2247,43 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="57" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B26" s="57"/>
-      <c r="C26" s="56" t="s">
-        <v>106</v>
-      </c>
+      <c r="C26" s="56"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
-      <c r="H26" s="56" t="s">
-        <v>107</v>
-      </c>
+      <c r="H26" s="56"/>
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="36" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B27" s="36"/>
-      <c r="C27" s="58" t="s">
-        <v>112</v>
-      </c>
+      <c r="C27" s="58"/>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
-      <c r="H27" s="58" t="s">
-        <v>112</v>
-      </c>
+      <c r="H27" s="58"/>
       <c r="I27" s="58"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
       <c r="L27" s="58"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="52" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="53" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
@@ -2385,39 +2295,35 @@
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="52"/>
       <c r="B29" s="52"/>
       <c r="C29" s="53" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
       <c r="G29" s="53"/>
       <c r="H29" s="42" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="46" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="56" t="s">
-        <v>115</v>
-      </c>
+      <c r="C30" s="56"/>
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
-      <c r="H30" s="56" t="s">
-        <v>116</v>
-      </c>
+      <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
       <c r="K30" s="56"/>
@@ -2425,25 +2331,21 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B31" s="34"/>
-      <c r="C31" s="55" t="s">
-        <v>43</v>
-      </c>
+      <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
-      <c r="H31" s="55" t="s">
-        <v>43</v>
-      </c>
+      <c r="H31" s="55"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -2459,7 +2361,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="59" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -2489,11 +2391,11 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="60" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B35" s="60"/>
       <c r="C35" s="52" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
@@ -2509,14 +2411,14 @@
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
       <c r="C36" s="61" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D36" s="61"/>
       <c r="E36" s="61"/>
       <c r="F36" s="61"/>
       <c r="G36" s="61"/>
       <c r="H36" s="62" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
@@ -2525,7 +2427,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="36" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="43"/>
@@ -2540,9 +2442,7 @@
       <c r="L37" s="63"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="64" t="s">
-        <v>120</v>
-      </c>
+      <c r="A38" s="64"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
       <c r="D38" s="64"/>
@@ -2689,11 +2589,11 @@
   </sheetPr>
   <dimension ref="A2:T69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="31" t="s">
@@ -2761,7 +2661,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="65" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -2780,7 +2680,7 @@
       <c r="Q7" s="65"/>
       <c r="R7" s="65"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
@@ -2799,9 +2699,9 @@
       <c r="Q8" s="65"/>
       <c r="R8" s="65"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="66" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="66"/>
@@ -2811,10 +2711,10 @@
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="62" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="L9" s="52"/>
       <c r="M9" s="52"/>
@@ -2827,7 +2727,7 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="67"/>
       <c r="C10" s="68" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -2836,11 +2736,11 @@
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="52" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
@@ -2852,122 +2752,102 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="67"/>
       <c r="C11" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
       <c r="J11" s="52"/>
       <c r="K11" s="69"/>
       <c r="L11" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M11" s="69"/>
       <c r="N11" s="69"/>
       <c r="O11" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L12" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M12" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O12" s="69"/>
       <c r="P12" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R12" s="41" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="73" t="n">
-        <v>1</v>
-      </c>
+      <c r="A13" s="25"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="71"/>
       <c r="H13" s="71"/>
-      <c r="I13" s="72" t="s">
-        <v>136</v>
-      </c>
+      <c r="I13" s="72"/>
       <c r="J13" s="52"/>
       <c r="K13" s="74"/>
       <c r="L13" s="71"/>
       <c r="M13" s="71"/>
-      <c r="N13" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="O13" s="73" t="n">
-        <v>0</v>
-      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="73"/>
       <c r="P13" s="71"/>
       <c r="Q13" s="71"/>
-      <c r="R13" s="75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R13" s="75"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="70"/>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -2986,10 +2866,10 @@
       <c r="Q14" s="79"/>
       <c r="R14" s="37"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="67"/>
       <c r="C15" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -3000,7 +2880,7 @@
       <c r="J15" s="52"/>
       <c r="K15" s="69"/>
       <c r="L15" s="68" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
@@ -3009,129 +2889,103 @@
       <c r="Q15" s="68"/>
       <c r="R15" s="68"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="67"/>
       <c r="C16" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
       <c r="J16" s="52"/>
       <c r="K16" s="69"/>
       <c r="L16" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M16" s="69"/>
       <c r="N16" s="69"/>
       <c r="O16" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P16" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C17" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L17" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O17" s="69"/>
       <c r="P17" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R17" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="73" t="n">
-        <v>1</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="44"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="71"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="72" t="s">
-        <v>136</v>
-      </c>
+      <c r="I18" s="72"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M18" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" s="73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K18" s="82"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="73"/>
       <c r="P18" s="71"/>
       <c r="Q18" s="71"/>
-      <c r="R18" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="R18" s="75"/>
+      <c r="T18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="70"/>
@@ -3155,7 +3009,7 @@
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -3164,11 +3018,11 @@
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="83" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="K20" s="69"/>
       <c r="L20" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M20" s="68"/>
       <c r="N20" s="68"/>
@@ -3177,133 +3031,103 @@
       <c r="Q20" s="68"/>
       <c r="R20" s="68"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="67"/>
       <c r="C21" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
       <c r="J21" s="83"/>
       <c r="K21" s="69"/>
       <c r="L21" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M21" s="69"/>
       <c r="N21" s="69"/>
       <c r="O21" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P21" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C22" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L22" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O22" s="69"/>
       <c r="P22" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R22" s="41" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="72" t="s">
-        <v>140</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="83"/>
-      <c r="K23" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M23" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N23" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O23" s="73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K23" s="82"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="73"/>
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
-      <c r="R23" s="75" t="s">
-        <v>136</v>
-      </c>
+      <c r="R23" s="75"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="70"/>
@@ -3327,7 +3151,7 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="67"/>
       <c r="C25" s="68" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -3338,7 +3162,7 @@
       <c r="J25" s="83"/>
       <c r="K25" s="69"/>
       <c r="L25" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M25" s="68"/>
       <c r="N25" s="68"/>
@@ -3350,132 +3174,102 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="67"/>
       <c r="C26" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="70"/>
       <c r="J26" s="83"/>
       <c r="K26" s="69"/>
       <c r="L26" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M26" s="69"/>
       <c r="N26" s="69"/>
       <c r="O26" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P26" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="52"/>
       <c r="R26" s="52"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F27" s="61"/>
       <c r="G27" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I27" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J27" s="83"/>
       <c r="K27" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L27" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M27" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O27" s="69"/>
       <c r="P27" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q27" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R27" s="41" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="72" t="s">
-        <v>140</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="83"/>
-      <c r="K28" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="L28" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M28" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N28" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O28" s="73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K28" s="82"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="73"/>
       <c r="P28" s="71"/>
       <c r="Q28" s="71"/>
-      <c r="R28" s="75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R28" s="75"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="70"/>
       <c r="C29" s="76"/>
       <c r="D29" s="76"/>
@@ -3497,7 +3291,7 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="67"/>
       <c r="C30" s="68" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -3508,7 +3302,7 @@
       <c r="J30" s="83"/>
       <c r="K30" s="69"/>
       <c r="L30" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M30" s="68"/>
       <c r="N30" s="68"/>
@@ -3520,132 +3314,102 @@
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="67"/>
       <c r="C31" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G31" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H31" s="70"/>
       <c r="I31" s="70"/>
       <c r="J31" s="83"/>
       <c r="K31" s="69"/>
       <c r="L31" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M31" s="69"/>
       <c r="N31" s="69"/>
       <c r="O31" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P31" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J32" s="83"/>
       <c r="K32" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L32" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M32" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N32" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O32" s="69"/>
       <c r="P32" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R32" s="41" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="72" t="s">
-        <v>140</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="83"/>
-      <c r="K33" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="L33" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M33" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N33" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O33" s="73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K33" s="82"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="73"/>
       <c r="P33" s="71"/>
       <c r="Q33" s="71"/>
-      <c r="R33" s="75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R33" s="75"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="70"/>
       <c r="C34" s="76"/>
       <c r="D34" s="76"/>
@@ -3664,10 +3428,10 @@
       <c r="Q34" s="79"/>
       <c r="R34" s="37"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="67"/>
       <c r="C35" s="68" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -3678,7 +3442,7 @@
       <c r="J35" s="83"/>
       <c r="K35" s="69"/>
       <c r="L35" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M35" s="68"/>
       <c r="N35" s="68"/>
@@ -3687,133 +3451,103 @@
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="67"/>
       <c r="C36" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="70"/>
       <c r="J36" s="83"/>
       <c r="K36" s="69"/>
       <c r="L36" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M36" s="69"/>
       <c r="N36" s="69"/>
       <c r="O36" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P36" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q36" s="52"/>
       <c r="R36" s="52"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C37" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J37" s="83"/>
       <c r="K37" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L37" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O37" s="69"/>
       <c r="P37" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q37" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="H38" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="72" t="s">
-        <v>135</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="83"/>
-      <c r="K38" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="L38" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N38" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O38" s="73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K38" s="82"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="73"/>
       <c r="P38" s="71"/>
       <c r="Q38" s="71"/>
-      <c r="R38" s="75" t="s">
-        <v>136</v>
-      </c>
+      <c r="R38" s="75"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="70"/>
@@ -3837,7 +3571,7 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="67"/>
       <c r="C40" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D40" s="68"/>
       <c r="E40" s="68"/>
@@ -3846,11 +3580,11 @@
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
       <c r="J40" s="83" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="K40" s="69"/>
       <c r="L40" s="68" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="M40" s="68"/>
       <c r="N40" s="68"/>
@@ -3859,133 +3593,105 @@
       <c r="Q40" s="68"/>
       <c r="R40" s="68"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="67"/>
       <c r="C41" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
       <c r="F41" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G41" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="70"/>
       <c r="J41" s="83"/>
       <c r="K41" s="69"/>
       <c r="L41" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M41" s="69"/>
       <c r="N41" s="69"/>
       <c r="O41" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P41" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q41" s="52"/>
       <c r="R41" s="52"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C42" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F42" s="61"/>
       <c r="G42" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I42" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J42" s="83"/>
       <c r="K42" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L42" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M42" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N42" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O42" s="69"/>
       <c r="P42" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q42" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R42" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" s="72" t="s">
-        <v>135</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="44"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="72"/>
       <c r="J43" s="83"/>
-      <c r="K43" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="L43" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M43" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N43" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O43" s="73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K43" s="82"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="73"/>
       <c r="P43" s="71"/>
       <c r="Q43" s="71"/>
       <c r="R43" s="75"/>
-      <c r="T43" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="70"/>
       <c r="C44" s="76"/>
       <c r="D44" s="76"/>
@@ -4007,7 +3713,7 @@
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="67"/>
       <c r="C45" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
@@ -4018,7 +3724,7 @@
       <c r="J45" s="83"/>
       <c r="K45" s="69"/>
       <c r="L45" s="68" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="M45" s="68"/>
       <c r="N45" s="68"/>
@@ -4027,139 +3733,105 @@
       <c r="Q45" s="68"/>
       <c r="R45" s="68"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="67"/>
       <c r="C46" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70"/>
       <c r="J46" s="83"/>
       <c r="K46" s="69"/>
       <c r="L46" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M46" s="69"/>
       <c r="N46" s="69"/>
       <c r="O46" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P46" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q46" s="52"/>
       <c r="R46" s="52"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C47" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F47" s="61"/>
       <c r="G47" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I47" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J47" s="83"/>
       <c r="K47" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L47" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M47" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N47" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O47" s="69"/>
       <c r="P47" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q47" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R47" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="72" t="s">
-        <v>135</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="44"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="83"/>
-      <c r="K48" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="L48" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M48" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N48" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O48" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q48" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="R48" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="T48" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K48" s="82"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="72"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="70"/>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
@@ -4178,10 +3850,10 @@
       <c r="Q49" s="79"/>
       <c r="R49" s="37"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="67"/>
       <c r="C50" s="68" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
@@ -4192,7 +3864,7 @@
       <c r="J50" s="83"/>
       <c r="K50" s="69"/>
       <c r="L50" s="68" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="M50" s="68"/>
       <c r="N50" s="68"/>
@@ -4204,136 +3876,102 @@
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="67"/>
       <c r="C51" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G51" s="70" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H51" s="70"/>
       <c r="I51" s="70"/>
       <c r="J51" s="83"/>
       <c r="K51" s="69"/>
       <c r="L51" s="69" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M51" s="69"/>
       <c r="N51" s="69"/>
       <c r="O51" s="69" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P51" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C52" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F52" s="61"/>
       <c r="G52" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H52" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I52" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J52" s="83"/>
       <c r="K52" s="42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L52" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M52" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N52" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O52" s="69"/>
       <c r="P52" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q52" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R52" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="H53" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53" s="72" t="s">
-        <v>135</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="44"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="83"/>
-      <c r="K53" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="L53" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M53" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N53" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O53" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q53" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="R53" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="T53" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K53" s="82"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="75"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="70"/>
       <c r="C54" s="79"/>
       <c r="D54" s="79"/>
@@ -4476,16 +4114,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:T33"/>
+  <dimension ref="B2:T33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="31" t="s">
         <v>70</v>
       </c>
@@ -4533,7 +4170,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
         <v>73</v>
       </c>
@@ -4551,7 +4188,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="84" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
@@ -4595,7 +4232,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="85" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -4605,10 +4242,10 @@
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
       <c r="J9" s="40" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
@@ -4618,13 +4255,13 @@
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="40" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="67"/>
       <c r="C10" s="86" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="86"/>
@@ -4633,11 +4270,11 @@
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
       <c r="J10" s="83" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="L10" s="67"/>
       <c r="M10" s="86" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N10" s="86"/>
       <c r="O10" s="86"/>
@@ -4646,36 +4283,36 @@
       <c r="R10" s="86"/>
       <c r="S10" s="86"/>
       <c r="T10" s="83" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="67"/>
       <c r="C11" s="70" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D11" s="70"/>
       <c r="E11" s="70"/>
       <c r="F11" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
       <c r="J11" s="83"/>
       <c r="L11" s="67"/>
       <c r="M11" s="70" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="N11" s="70"/>
       <c r="O11" s="70"/>
       <c r="P11" s="61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="60" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="R11" s="60"/>
       <c r="S11" s="60"/>
@@ -4683,145 +4320,87 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="85" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="60" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J12" s="83"/>
       <c r="L12" s="85" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="M12" s="60" t="s">
         <v>35</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="O12" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P12" s="61"/>
       <c r="Q12" s="60" t="s">
         <v>35</v>
       </c>
       <c r="R12" s="61" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="S12" s="61" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="T12" s="83"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="83"/>
-      <c r="L13" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="O13" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="P13" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="R13" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="S13" s="75" t="s">
-        <v>140</v>
-      </c>
+      <c r="L13" s="82"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="75"/>
       <c r="T13" s="83"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="77" t="s">
-        <v>140</v>
-      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="83"/>
-      <c r="L14" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="O14" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="P14" s="78" t="n">
-        <v>1</v>
-      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="78"/>
       <c r="Q14" s="76"/>
       <c r="R14" s="76"/>
       <c r="S14" s="77"/>
@@ -4829,7 +4408,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="60"/>
-      <c r="C15" s="88"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="76"/>
       <c r="E15" s="77"/>
       <c r="F15" s="78"/>
@@ -4838,7 +4417,7 @@
       <c r="I15" s="77"/>
       <c r="J15" s="83"/>
       <c r="L15" s="60"/>
-      <c r="M15" s="88"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="76"/>
       <c r="O15" s="77"/>
       <c r="P15" s="78"/>
@@ -4849,7 +4428,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="60"/>
-      <c r="C16" s="88"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="76"/>
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
@@ -4858,7 +4437,7 @@
       <c r="I16" s="77"/>
       <c r="J16" s="83"/>
       <c r="L16" s="60"/>
-      <c r="M16" s="88"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="76"/>
       <c r="O16" s="77"/>
       <c r="P16" s="78"/>
@@ -4869,7 +4448,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="60"/>
-      <c r="C17" s="88"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="76"/>
       <c r="E17" s="77"/>
       <c r="F17" s="78"/>
@@ -4878,7 +4457,7 @@
       <c r="I17" s="77"/>
       <c r="J17" s="83"/>
       <c r="L17" s="60"/>
-      <c r="M17" s="88"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="76"/>
       <c r="O17" s="77"/>
       <c r="P17" s="78"/>
@@ -4889,7 +4468,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="60"/>
-      <c r="C18" s="88"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="76"/>
       <c r="E18" s="77"/>
       <c r="F18" s="78"/>
@@ -4898,7 +4477,7 @@
       <c r="I18" s="77"/>
       <c r="J18" s="83"/>
       <c r="L18" s="60"/>
-      <c r="M18" s="88"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="76"/>
       <c r="O18" s="77"/>
       <c r="P18" s="78"/>
@@ -4909,7 +4488,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="60"/>
-      <c r="C19" s="88"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="76"/>
       <c r="E19" s="77"/>
       <c r="F19" s="78"/>
@@ -4918,7 +4497,7 @@
       <c r="I19" s="77"/>
       <c r="J19" s="83"/>
       <c r="L19" s="60"/>
-      <c r="M19" s="88"/>
+      <c r="M19" s="87"/>
       <c r="N19" s="76"/>
       <c r="O19" s="77"/>
       <c r="P19" s="78"/>
@@ -4929,7 +4508,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="60"/>
-      <c r="C20" s="88"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="76"/>
       <c r="E20" s="77"/>
       <c r="F20" s="78"/>
@@ -4938,7 +4517,7 @@
       <c r="I20" s="77"/>
       <c r="J20" s="83"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="88"/>
+      <c r="M20" s="87"/>
       <c r="N20" s="76"/>
       <c r="O20" s="77"/>
       <c r="P20" s="78"/>
@@ -4949,7 +4528,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="60"/>
-      <c r="C21" s="88"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="76"/>
       <c r="E21" s="77"/>
       <c r="F21" s="78"/>
@@ -4958,7 +4537,7 @@
       <c r="I21" s="77"/>
       <c r="J21" s="83"/>
       <c r="L21" s="60"/>
-      <c r="M21" s="88"/>
+      <c r="M21" s="87"/>
       <c r="N21" s="76"/>
       <c r="O21" s="77"/>
       <c r="P21" s="78"/>
@@ -4969,7 +4548,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="60"/>
-      <c r="C22" s="88"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="76"/>
       <c r="E22" s="77"/>
       <c r="F22" s="78"/>
@@ -4978,7 +4557,7 @@
       <c r="I22" s="77"/>
       <c r="J22" s="83"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="88"/>
+      <c r="M22" s="87"/>
       <c r="N22" s="76"/>
       <c r="O22" s="77"/>
       <c r="P22" s="78"/>
@@ -4987,9 +4566,9 @@
       <c r="S22" s="77"/>
       <c r="T22" s="83"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="60"/>
-      <c r="C23" s="88"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="76"/>
       <c r="E23" s="77"/>
       <c r="F23" s="78"/>
@@ -4998,7 +4577,7 @@
       <c r="I23" s="77"/>
       <c r="J23" s="83"/>
       <c r="L23" s="60"/>
-      <c r="M23" s="88"/>
+      <c r="M23" s="87"/>
       <c r="N23" s="76"/>
       <c r="O23" s="77"/>
       <c r="P23" s="78"/>
@@ -5009,7 +4588,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="60"/>
-      <c r="C24" s="88"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="76"/>
       <c r="E24" s="77"/>
       <c r="F24" s="78"/>
@@ -5018,7 +4597,7 @@
       <c r="I24" s="77"/>
       <c r="J24" s="83"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="88"/>
+      <c r="M24" s="87"/>
       <c r="N24" s="76"/>
       <c r="O24" s="77"/>
       <c r="P24" s="78"/>
@@ -5029,7 +4608,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="60"/>
-      <c r="C25" s="88"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="76"/>
       <c r="E25" s="77"/>
       <c r="F25" s="78"/>
@@ -5038,7 +4617,7 @@
       <c r="I25" s="77"/>
       <c r="J25" s="83"/>
       <c r="L25" s="60"/>
-      <c r="M25" s="88"/>
+      <c r="M25" s="87"/>
       <c r="N25" s="76"/>
       <c r="O25" s="77"/>
       <c r="P25" s="78"/>
@@ -5049,7 +4628,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="60"/>
-      <c r="C26" s="88"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="76"/>
       <c r="E26" s="77"/>
       <c r="F26" s="78"/>
@@ -5058,7 +4637,7 @@
       <c r="I26" s="77"/>
       <c r="J26" s="83"/>
       <c r="L26" s="60"/>
-      <c r="M26" s="88"/>
+      <c r="M26" s="87"/>
       <c r="N26" s="76"/>
       <c r="O26" s="77"/>
       <c r="P26" s="78"/>
@@ -5069,7 +4648,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="60"/>
-      <c r="C27" s="88"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="76"/>
       <c r="E27" s="77"/>
       <c r="F27" s="78"/>
@@ -5078,7 +4657,7 @@
       <c r="I27" s="77"/>
       <c r="J27" s="83"/>
       <c r="L27" s="60"/>
-      <c r="M27" s="88"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="76"/>
       <c r="O27" s="77"/>
       <c r="P27" s="78"/>
@@ -5087,9 +4666,9 @@
       <c r="S27" s="77"/>
       <c r="T27" s="83"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="60"/>
-      <c r="C28" s="88"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="76"/>
       <c r="E28" s="77"/>
       <c r="F28" s="78"/>
@@ -5098,7 +4677,7 @@
       <c r="I28" s="77"/>
       <c r="J28" s="83"/>
       <c r="L28" s="60"/>
-      <c r="M28" s="88"/>
+      <c r="M28" s="87"/>
       <c r="N28" s="76"/>
       <c r="O28" s="77"/>
       <c r="P28" s="78"/>
@@ -5109,7 +4688,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="60"/>
-      <c r="C29" s="91"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="79"/>
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
@@ -5118,7 +4697,7 @@
       <c r="I29" s="80"/>
       <c r="J29" s="83"/>
       <c r="L29" s="60"/>
-      <c r="M29" s="91"/>
+      <c r="M29" s="89"/>
       <c r="N29" s="79"/>
       <c r="O29" s="80"/>
       <c r="P29" s="81"/>
@@ -5170,11 +4749,11 @@
   </sheetPr>
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="31" t="s">
@@ -5242,7 +4821,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="59" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -5276,7 +4855,7 @@
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="41" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
@@ -5292,14 +4871,14 @@
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="41" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="42" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -5308,7 +4887,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="32" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="43"/>
@@ -5316,47 +4895,39 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="34" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C12" s="34"/>
-      <c r="D12" s="48" t="s">
-        <v>164</v>
-      </c>
+      <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
-      <c r="I12" s="45" t="s">
-        <v>165</v>
-      </c>
+      <c r="I12" s="45"/>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
       <c r="M12" s="45"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="34" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C13" s="34"/>
-      <c r="D13" s="48" t="s">
-        <v>167</v>
-      </c>
+      <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
-      <c r="I13" s="45" t="n">
-        <v>128</v>
-      </c>
+      <c r="I13" s="45"/>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
@@ -5364,7 +4935,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="48"/>
@@ -5380,7 +4951,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="48"/>
@@ -5394,199 +4965,195 @@
       <c r="L15" s="45"/>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="43" t="s">
-        <v>171</v>
-      </c>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" s="78"/>
       <c r="J16" s="78"/>
       <c r="K16" s="78"/>
       <c r="L16" s="78"/>
       <c r="M16" s="78"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
+      <c r="B17" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="59" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -5600,7 +5167,7 @@
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -5615,174 +5182,174 @@
       <c r="M30" s="59"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
+      <c r="B31" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="33">
